--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H2">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I2">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J2">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>681.5822296349211</v>
+        <v>553.4082046113774</v>
       </c>
       <c r="R2">
-        <v>6134.240066714289</v>
+        <v>4980.673841502397</v>
       </c>
       <c r="S2">
-        <v>0.05079777737879577</v>
+        <v>0.04197569363305035</v>
       </c>
       <c r="T2">
-        <v>0.05079777737879576</v>
+        <v>0.04197569363305034</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H3">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I3">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J3">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>2774.322127772982</v>
+        <v>3432.606611700971</v>
       </c>
       <c r="R3">
-        <v>24968.89914995683</v>
+        <v>30893.45950530874</v>
       </c>
       <c r="S3">
-        <v>0.2067680049392801</v>
+        <v>0.260361234790014</v>
       </c>
       <c r="T3">
-        <v>0.2067680049392801</v>
+        <v>0.260361234790014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H4">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I4">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J4">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>910.9996906556257</v>
+        <v>1374.520131965312</v>
       </c>
       <c r="R4">
-        <v>8198.997215900632</v>
+        <v>12370.68118768781</v>
       </c>
       <c r="S4">
-        <v>0.0678960769016289</v>
+        <v>0.1042565604757384</v>
       </c>
       <c r="T4">
-        <v>0.06789607690162888</v>
+        <v>0.1042565604757384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.70817566666667</v>
+        <v>62.74008966666666</v>
       </c>
       <c r="H5">
-        <v>152.124527</v>
+        <v>188.220269</v>
       </c>
       <c r="I5">
-        <v>0.5661129211027078</v>
+        <v>0.6543216524118473</v>
       </c>
       <c r="J5">
-        <v>0.5661129211027077</v>
+        <v>0.6543216524118471</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>3228.950079825657</v>
+        <v>3266.052001425023</v>
       </c>
       <c r="R5">
-        <v>29060.55071843091</v>
+        <v>29394.4680128252</v>
       </c>
       <c r="S5">
-        <v>0.240651061883003</v>
+        <v>0.2477281635130444</v>
       </c>
       <c r="T5">
-        <v>0.240651061883003</v>
+        <v>0.2477281635130444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>51.26051</v>
       </c>
       <c r="I6">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J6">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>229.66876799573</v>
+        <v>150.7169602789355</v>
       </c>
       <c r="R6">
-        <v>2067.01891196157</v>
+        <v>1356.45264251042</v>
       </c>
       <c r="S6">
-        <v>0.01711702923029325</v>
+        <v>0.01143179464499604</v>
       </c>
       <c r="T6">
-        <v>0.01711702923029325</v>
+        <v>0.01143179464499604</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.26051</v>
       </c>
       <c r="I7">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J7">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>934.8470623276166</v>
@@ -883,10 +883,10 @@
         <v>8413.62356094855</v>
       </c>
       <c r="S7">
-        <v>0.06967340240190208</v>
+        <v>0.07090761133470629</v>
       </c>
       <c r="T7">
-        <v>0.06967340240190208</v>
+        <v>0.07090761133470627</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>51.26051</v>
       </c>
       <c r="I8">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J8">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>306.9742248260177</v>
+        <v>374.3412085433222</v>
       </c>
       <c r="R8">
-        <v>2762.76802343416</v>
+        <v>3369.0708768899</v>
       </c>
       <c r="S8">
-        <v>0.02287854297799537</v>
+        <v>0.02839356509915621</v>
       </c>
       <c r="T8">
-        <v>0.02287854297799537</v>
+        <v>0.02839356509915621</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>51.26051</v>
       </c>
       <c r="I9">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="J9">
-        <v>0.1907597520636141</v>
+        <v>0.1782000513806195</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>1088.040377975367</v>
+        <v>889.4870471126966</v>
       </c>
       <c r="R9">
-        <v>9792.363401778302</v>
+        <v>8005.38342401427</v>
       </c>
       <c r="S9">
-        <v>0.08109077745342336</v>
+        <v>0.06746708030176098</v>
       </c>
       <c r="T9">
-        <v>0.08109077745342337</v>
+        <v>0.06746708030176098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H10">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I10">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J10">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>46.216203945489</v>
+        <v>26.02218568698089</v>
       </c>
       <c r="R10">
-        <v>415.945835509401</v>
+        <v>234.199671182828</v>
       </c>
       <c r="S10">
-        <v>0.003444456644025875</v>
+        <v>0.001973767799171153</v>
       </c>
       <c r="T10">
-        <v>0.003444456644025875</v>
+        <v>0.001973767799171153</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H11">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I11">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J11">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>188.119102424835</v>
+        <v>161.4069431853967</v>
       </c>
       <c r="R11">
-        <v>1693.071921823515</v>
+        <v>1452.66248866857</v>
       </c>
       <c r="S11">
-        <v>0.01402036595172704</v>
+        <v>0.01224262369249681</v>
       </c>
       <c r="T11">
-        <v>0.01402036595172704</v>
+        <v>0.01224262369249681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H12">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I12">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J12">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>61.77236680623199</v>
+        <v>64.63225121429556</v>
       </c>
       <c r="R12">
-        <v>555.951301256088</v>
+        <v>581.69026092866</v>
       </c>
       <c r="S12">
-        <v>0.004603844995878272</v>
+        <v>0.004902319035350712</v>
       </c>
       <c r="T12">
-        <v>0.004603844995878272</v>
+        <v>0.00490231903535071</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.438381</v>
+        <v>2.950144666666667</v>
       </c>
       <c r="H13">
-        <v>10.315143</v>
+        <v>8.850434</v>
       </c>
       <c r="I13">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473967</v>
       </c>
       <c r="J13">
-        <v>0.03838654982521095</v>
+        <v>0.03076730593473966</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>218.94616515891</v>
+        <v>153.5752649422687</v>
       </c>
       <c r="R13">
-        <v>1970.51548643019</v>
+        <v>1382.177384480418</v>
       </c>
       <c r="S13">
-        <v>0.01631788223357977</v>
+        <v>0.01164859540772098</v>
       </c>
       <c r="T13">
-        <v>0.01631788223357977</v>
+        <v>0.01164859540772098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H14">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I14">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J14">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>246.501484224734</v>
+        <v>115.626593432506</v>
       </c>
       <c r="R14">
-        <v>2218.513358022606</v>
+        <v>1040.639340892554</v>
       </c>
       <c r="S14">
-        <v>0.01837155808169741</v>
+        <v>0.008770210526901107</v>
       </c>
       <c r="T14">
-        <v>0.01837155808169741</v>
+        <v>0.008770210526901105</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H15">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I15">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J15">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>1003.363192992677</v>
+        <v>717.193214335515</v>
       </c>
       <c r="R15">
-        <v>9030.268736934089</v>
+        <v>6454.738929019635</v>
       </c>
       <c r="S15">
-        <v>0.07477985471396494</v>
+        <v>0.05439869230307264</v>
       </c>
       <c r="T15">
-        <v>0.07477985471396492</v>
+        <v>0.05439869230307264</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H16">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I16">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J16">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>329.4727563469031</v>
+        <v>287.18598520807</v>
       </c>
       <c r="R16">
-        <v>2965.254807122128</v>
+        <v>2584.67386687263</v>
       </c>
       <c r="S16">
-        <v>0.02455534050271944</v>
+        <v>0.02178289159855337</v>
       </c>
       <c r="T16">
-        <v>0.02455534050271944</v>
+        <v>0.02178289159855336</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.33915266666667</v>
+        <v>13.108629</v>
       </c>
       <c r="H17">
-        <v>55.017458</v>
+        <v>39.325887</v>
       </c>
       <c r="I17">
-        <v>0.2047407770084672</v>
+        <v>0.1367109902727936</v>
       </c>
       <c r="J17">
-        <v>0.2047407770084671</v>
+        <v>0.1367109902727935</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>1167.784241662127</v>
+        <v>682.3940515363109</v>
       </c>
       <c r="R17">
-        <v>10510.05817495914</v>
+        <v>6141.546463826799</v>
       </c>
       <c r="S17">
-        <v>0.08703402371008534</v>
+        <v>0.05175919584426644</v>
       </c>
       <c r="T17">
-        <v>0.08703402371008534</v>
+        <v>0.05175919584426644</v>
       </c>
     </row>
   </sheetData>
